--- a/exel/კატეგორიები.xlsx
+++ b/exel/კატეგორიები.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anano\Documents\GitHub\artarea-back-end\exel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="19095" windowHeight="11775"/>
   </bookViews>
@@ -24,8 +29,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,17 +63,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -106,9 +119,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -140,9 +153,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +205,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -349,17 +398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,24 +421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
